--- a/out_acc.xlsx
+++ b/out_acc.xlsx
@@ -1,42 +1,677 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Python\LPRNet_Pytorch-master\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6475A325-421F-4A28-8084-3B201893FDC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="203">
   <si>
     <t>Epoch</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Accuracy</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Speed:</t>
+  </si>
+  <si>
+    <t>[0:25870:2930:28800]</t>
+  </si>
+  <si>
+    <t>0.008557274174514167s</t>
+  </si>
+  <si>
+    <t>[0:28794:6:28800]</t>
+  </si>
+  <si>
+    <t>0.007026438772428309s</t>
+  </si>
+  <si>
+    <t>[281:14555:13964:28800]</t>
+  </si>
+  <si>
+    <t>0.007016979049683146s</t>
+  </si>
+  <si>
+    <t>[14172:4123:10505:28800]</t>
+  </si>
+  <si>
+    <t>0.008435482539200121s</t>
+  </si>
+  <si>
+    <t>[20044:2452:6304:28800]</t>
+  </si>
+  <si>
+    <t>0.007198960030237195s</t>
+  </si>
+  <si>
+    <t>[22493:2006:4301:28800]</t>
+  </si>
+  <si>
+    <t>0.007422675926383352s</t>
+  </si>
+  <si>
+    <t>[23135:1661:4004:28800]</t>
+  </si>
+  <si>
+    <t>0.0071862419312665165s</t>
+  </si>
+  <si>
+    <t>[24239:1304:3257:28800]</t>
+  </si>
+  <si>
+    <t>0.0071157928826032606s</t>
+  </si>
+  <si>
+    <t>[24802:1184:2814:28800]</t>
+  </si>
+  <si>
+    <t>0.007091370085556238s</t>
+  </si>
+  <si>
+    <t>[25279:1029:2492:28800]</t>
+  </si>
+  <si>
+    <t>0.007106275417277223s</t>
+  </si>
+  <si>
+    <t>[25729:943:2128:28800]</t>
+  </si>
+  <si>
+    <t>0.007137257738445061s</t>
+  </si>
+  <si>
+    <t>[25975:923:1902:28800]</t>
+  </si>
+  <si>
+    <t>0.00711785155234458s</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[25979:879:1942:28800]</t>
+  </si>
+  <si>
+    <t>0.007345008815377708s</t>
+  </si>
+  <si>
+    <t>[26092:794:1914:28800]</t>
+  </si>
+  <si>
+    <t>0.007088341241256361s</t>
+  </si>
+  <si>
+    <t>[26596:617:1587:28800]</t>
+  </si>
+  <si>
+    <t>0.0070912458460074945s</t>
+  </si>
+  <si>
+    <t>[26331:781:1688:28800]</t>
+  </si>
+  <si>
+    <t>0.013712241726424905s</t>
+  </si>
+  <si>
+    <t>[26708:611:1481:28800]</t>
+  </si>
+  <si>
+    <t>0.013508576245022061s</t>
+  </si>
+  <si>
+    <t>[26742:594:1464:28800]</t>
+  </si>
+  <si>
+    <t>0.012780039333849955s</t>
+  </si>
+  <si>
+    <t>[26911:515:1374:28800]</t>
+  </si>
+  <si>
+    <t>0.013880964448277487s</t>
+  </si>
+  <si>
+    <t>[26963:546:1291:28800]</t>
+  </si>
+  <si>
+    <t>0.007971656003799722s</t>
+  </si>
+  <si>
+    <t>[27409:382:1009:28800]</t>
+  </si>
+  <si>
+    <t>0.007944659135910474s</t>
+  </si>
+  <si>
+    <t>[27440:381:979:28800]</t>
+  </si>
+  <si>
+    <t>0.007960379146421044s</t>
+  </si>
+  <si>
+    <t>[27516:329:955:28800]</t>
+  </si>
+  <si>
+    <t>0.007964207814332578s</t>
+  </si>
+  <si>
+    <t>[27528:355:917:28800]</t>
+  </si>
+  <si>
+    <t>0.007943861155762743s</t>
+  </si>
+  <si>
+    <t>[27515:335:950:28800]</t>
+  </si>
+  <si>
+    <t>0.007931602360376318s</t>
+  </si>
+  <si>
+    <t>[27483:362:955:28800]</t>
+  </si>
+  <si>
+    <t>0.007947358330833461s</t>
+  </si>
+  <si>
+    <t>[27497:312:991:28800]</t>
+  </si>
+  <si>
+    <t>0.007946518711547598s</t>
+  </si>
+  <si>
+    <t>[27503:362:935:28800]</t>
+  </si>
+  <si>
+    <t>0.007947173298308375s</t>
+  </si>
+  <si>
+    <t>[27522:334:944:28800]</t>
+  </si>
+  <si>
+    <t>0.007950498766700875s</t>
+  </si>
+  <si>
+    <t>[27596:309:895:28800]</t>
+  </si>
+  <si>
+    <t>0.007954577757173825s</t>
+  </si>
+  <si>
+    <t>[27553:357:890:28800]</t>
+  </si>
+  <si>
+    <t>0.007955110013983021s</t>
+  </si>
+  <si>
+    <t>[27581:322:897:28800]</t>
+  </si>
+  <si>
+    <t>0.00793734294838054s</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[27551:345:904:28800]</t>
+  </si>
+  <si>
+    <t>0.007984705760944304s</t>
+  </si>
+  <si>
+    <t>[27574:324:902:28800]</t>
+  </si>
+  <si>
+    <t>0.007942178296396395s</t>
+  </si>
+  <si>
+    <t>[27558:337:905:28800]</t>
+  </si>
+  <si>
+    <t>0.0071060004187524705s</t>
+  </si>
+  <si>
+    <t>[27573:339:888:28800]</t>
+  </si>
+  <si>
+    <t>0.007107494013066687s</t>
+  </si>
+  <si>
+    <t>[27598:303:899:28800]</t>
+  </si>
+  <si>
+    <t>0.007058880430894595s</t>
+  </si>
+  <si>
+    <t>[27574:342:884:28800]</t>
+  </si>
+  <si>
+    <t>0.0073823947102314s</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[27589:330:881:28800]</t>
+  </si>
+  <si>
+    <t>0.007109246709129276s</t>
+  </si>
+  <si>
+    <t>[27600:331:869:28800]</t>
+  </si>
+  <si>
+    <t>0.007160557973426604s</t>
+  </si>
+  <si>
+    <t>[27669:306:825:28800]</t>
+  </si>
+  <si>
+    <t>0.00709013300552757s</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[27571:336:893:28800]</t>
+  </si>
+  <si>
+    <t>0.007089772199130307s</t>
+  </si>
+  <si>
+    <t>[27652:295:853:28800]</t>
+  </si>
+  <si>
+    <t>0.0070764313813515035s</t>
+  </si>
+  <si>
+    <t>[27636:318:846:28800]</t>
+  </si>
+  <si>
+    <t>0.0070852206040261986s</t>
+  </si>
+  <si>
+    <t>[27644:312:844:28800]</t>
+  </si>
+  <si>
+    <t>0.007168308300844844s</t>
+  </si>
+  <si>
+    <t>[27621:311:868:28800]</t>
+  </si>
+  <si>
+    <t>0.0071180880530598645s</t>
+  </si>
+  <si>
+    <t>[27690:285:825:28800]</t>
+  </si>
+  <si>
+    <t>0.007080938667188111s</t>
+  </si>
+  <si>
+    <t>[27643:314:843:28800]</t>
+  </si>
+  <si>
+    <t>0.008416621729089344s</t>
+  </si>
+  <si>
+    <t>[27608:319:873:28800]</t>
+  </si>
+  <si>
+    <t>0.007672845852291951s</t>
+  </si>
+  <si>
+    <t>[27632:295:873:28800]</t>
+  </si>
+  <si>
+    <t>0.00777411674156148s</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[27622:304:874:28800]</t>
+  </si>
+  <si>
+    <t>0.00939492466570348s</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[27634:312:854:28800]</t>
+  </si>
+  <si>
+    <t>0.013676411500193202s</t>
+  </si>
+  <si>
+    <t>[27636:317:847:28800]</t>
+  </si>
+  <si>
+    <t>0.013986596130001278s</t>
+  </si>
+  <si>
+    <t>[27634:314:852:28800]</t>
+  </si>
+  <si>
+    <t>0.008871832831690171s</t>
+  </si>
+  <si>
+    <t>[27680:309:811:28800]</t>
+  </si>
+  <si>
+    <t>0.010883031500340219s</t>
+  </si>
+  <si>
+    <t>[27632:311:857:28800]</t>
+  </si>
+  <si>
+    <t>0.007097277180513071s</t>
+  </si>
+  <si>
+    <t>[27677:305:818:28800]</t>
+  </si>
+  <si>
+    <t>0.0070870641092872005s</t>
+  </si>
+  <si>
+    <t>[27624:279:897:28800]</t>
+  </si>
+  <si>
+    <t>0.007075048411406259s</t>
+  </si>
+  <si>
+    <t>[27658:316:826:28800]</t>
+  </si>
+  <si>
+    <t>0.007077835365132193s</t>
+  </si>
+  <si>
+    <t>[27658:318:824:28800]</t>
+  </si>
+  <si>
+    <t>0.007108998188698516s</t>
+  </si>
+  <si>
+    <t>[27665:310:825:28800]</t>
+  </si>
+  <si>
+    <t>0.007068316502741564s</t>
+  </si>
+  <si>
+    <t>[27647:316:837:28800]</t>
+  </si>
+  <si>
+    <t>0.007069644557301733s</t>
+  </si>
+  <si>
+    <t>[27612:305:883:28800]</t>
+  </si>
+  <si>
+    <t>0.007107381818033382s</t>
+  </si>
+  <si>
+    <t>[27669:301:830:28800]</t>
+  </si>
+  <si>
+    <t>0.007172937437167078s</t>
+  </si>
+  <si>
+    <t>[27657:305:838:28800]</t>
+  </si>
+  <si>
+    <t>0.00708160128913695s</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[27667:311:822:28800]</t>
+  </si>
+  <si>
+    <t>0.00706804374448015s</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[27657:298:845:28800]</t>
+  </si>
+  <si>
+    <t>0.00706542500063763s</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[27645:304:851:28800]</t>
+  </si>
+  <si>
+    <t>0.0070750743521677175s</t>
+  </si>
+  <si>
+    <t>[27642:315:843:28800]</t>
+  </si>
+  <si>
+    <t>0.007097997652509292s</t>
+  </si>
+  <si>
+    <t>[27633:322:845:28800]</t>
+  </si>
+  <si>
+    <t>0.007118365076914942s</t>
+  </si>
+  <si>
+    <t>[27630:322:848:28800]</t>
+  </si>
+  <si>
+    <t>0.007066970980740681s</t>
+  </si>
+  <si>
+    <t>[27684:304:812:28800]</t>
+  </si>
+  <si>
+    <t>0.0076304660301913475s</t>
+  </si>
+  <si>
+    <t>[27645:319:836:28800]</t>
+  </si>
+  <si>
+    <t>0.007612840373978767s</t>
+  </si>
+  <si>
+    <t>[27680:302:818:28800]</t>
+  </si>
+  <si>
+    <t>0.00832665286089444s</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[27678:313:809:28800]</t>
+  </si>
+  <si>
+    <t>0.007464527211669232s</t>
+  </si>
+  <si>
+    <t>[27602:322:876:28800]</t>
+  </si>
+  <si>
+    <t>0.0082523010502964s</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[27616:320:864:28800]</t>
+  </si>
+  <si>
+    <t>0.007810283445426592s</t>
+  </si>
+  <si>
+    <t>[27650:303:847:28800]</t>
+  </si>
+  <si>
+    <t>0.007037851153338965s</t>
+  </si>
+  <si>
+    <t>[27655:294:851:28800]</t>
+  </si>
+  <si>
+    <t>0.007084919408473702s</t>
+  </si>
+  <si>
+    <t>[27606:347:847:28800]</t>
+  </si>
+  <si>
+    <t>0.007059243303955455s</t>
+  </si>
+  <si>
+    <t>[27644:316:840:28800]</t>
+  </si>
+  <si>
+    <t>0.00705824818890062s</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[27665:312:823:28800]</t>
+  </si>
+  <si>
+    <t>0.007676629144537569s</t>
+  </si>
+  <si>
+    <t>[27644:307:849:28800]</t>
+  </si>
+  <si>
+    <t>0.007541825753889147s</t>
+  </si>
+  <si>
+    <t>[27640:347:813:28800]</t>
+  </si>
+  <si>
+    <t>0.00767477204889676s</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[27657:326:817:28800]</t>
+  </si>
+  <si>
+    <t>0.007150822177491618s</t>
+  </si>
+  <si>
+    <t>[27659:309:832:28800]</t>
+  </si>
+  <si>
+    <t>0.007712047831914051s</t>
+  </si>
+  <si>
+    <t>[27629:323:848:28800]</t>
+  </si>
+  <si>
+    <t>0.0086161205686828s</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[27646:332:822:28800]</t>
+  </si>
+  <si>
+    <t>0.013590438038328765s</t>
+  </si>
+  <si>
+    <t>[27641:316:843:28800]</t>
+  </si>
+  <si>
+    <t>0.013710604507257413s</t>
+  </si>
+  <si>
+    <t>[27689:305:806:28800]</t>
+  </si>
+  <si>
+    <t>0.014083075864789291s</t>
+  </si>
+  <si>
+    <t>[27663:320:817:28800]</t>
+  </si>
+  <si>
+    <t>0.007139388857145407s</t>
+  </si>
+  <si>
+    <t>[27603:319:878:28800]</t>
+  </si>
+  <si>
+    <t>0.007772148285819457s</t>
+  </si>
+  <si>
+    <t>[27651:322:827:28800]</t>
+  </si>
+  <si>
+    <t>0.008052303185844375s</t>
+  </si>
+  <si>
+    <t>[27648:319:833:28800]</t>
+  </si>
+  <si>
+    <t>0.008069214636184758s</t>
+  </si>
+  <si>
+    <t>[27642:330:828:28800]</t>
+  </si>
+  <si>
+    <t>0.00797516775298212s</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[27658:296:846:28800]</t>
+  </si>
+  <si>
+    <t>0.007568265664205898s</t>
+  </si>
+  <si>
+    <t>[27682:284:834:28800]</t>
+  </si>
+  <si>
+    <t>0.007557165762830973s</t>
+  </si>
+  <si>
+    <t>[27683:293:824:28800]</t>
+  </si>
+  <si>
+    <t>0.007491144813721977s</t>
+  </si>
+  <si>
+    <t>[27668:336:796:28800]</t>
+  </si>
+  <si>
+    <t>0.0076624258419068746s</t>
+  </si>
+  <si>
+    <t>[27635:314:851:28800]</t>
+  </si>
+  <si>
+    <t>0.007474174620535539s</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -48,7 +683,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -56,43 +691,42 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="Invisible" pivot="0" table="0" count="0" xr9:uid="{DE541FFD-8C87-4E38-BFF4-15FD93D2F0CB}"/>
+  </tableStyles>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -130,7 +764,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -164,6 +798,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -198,9 +833,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -373,19 +1009,1434 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="6.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.88671875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3">
+        <v>0</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3">
+        <v>9.7569444444444396E-3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3">
+        <v>0.49208333333333298</v>
+      </c>
+      <c r="C5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3">
+        <v>0.69597222222222199</v>
+      </c>
+      <c r="C6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3">
+        <v>0.78100694444444396</v>
+      </c>
+      <c r="C7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="3">
+        <v>0.80329861111111101</v>
+      </c>
+      <c r="C8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="3">
+        <v>0.841631944444444</v>
+      </c>
+      <c r="C9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="3">
+        <v>0.86118055555555495</v>
+      </c>
+      <c r="C10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="3">
+        <v>0.87774305555555499</v>
+      </c>
+      <c r="C11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="3">
+        <v>0.89336805555555499</v>
+      </c>
+      <c r="C12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" s="3">
+        <v>0.90190972222222199</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" s="3">
+        <v>0.90204861111111101</v>
+      </c>
+      <c r="C14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" s="3">
+        <v>0.90597222222222196</v>
+      </c>
+      <c r="C15" t="s">
+        <v>29</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16" s="3">
+        <v>0.92347222222222203</v>
+      </c>
+      <c r="C16" t="s">
+        <v>31</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17" s="3">
+        <v>0.91427083333333303</v>
+      </c>
+      <c r="C17" t="s">
+        <v>33</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="B18" s="3">
+        <v>0.92736111111111097</v>
+      </c>
+      <c r="C18" t="s">
+        <v>35</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
+      <c r="B19" s="3">
+        <v>0.92854166666666604</v>
+      </c>
+      <c r="C19" t="s">
+        <v>37</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="B20" s="3">
+        <v>0.93440972222222196</v>
+      </c>
+      <c r="C20" t="s">
+        <v>39</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>20</v>
+      </c>
+      <c r="B21" s="3">
+        <v>0.93621527777777702</v>
+      </c>
+      <c r="C21" t="s">
+        <v>41</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>21</v>
+      </c>
+      <c r="B22" s="3">
+        <v>0.951701388888888</v>
+      </c>
+      <c r="C22" t="s">
+        <v>43</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>22</v>
+      </c>
+      <c r="B23" s="3">
+        <v>0.95277777777777695</v>
+      </c>
+      <c r="C23" t="s">
+        <v>45</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>23</v>
+      </c>
+      <c r="B24" s="3">
+        <v>0.95541666666666603</v>
+      </c>
+      <c r="C24" t="s">
+        <v>47</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>24</v>
+      </c>
+      <c r="B25" s="3">
+        <v>0.95583333333333298</v>
+      </c>
+      <c r="C25" t="s">
+        <v>49</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>25</v>
+      </c>
+      <c r="B26" s="3">
+        <v>0.95538194444444402</v>
+      </c>
+      <c r="C26" t="s">
+        <v>51</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>26</v>
+      </c>
+      <c r="B27" s="3">
+        <v>0.95427083333333296</v>
+      </c>
+      <c r="C27" t="s">
+        <v>53</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>27</v>
+      </c>
+      <c r="B28" s="3">
+        <v>0.95475694444444403</v>
+      </c>
+      <c r="C28" t="s">
+        <v>55</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>28</v>
+      </c>
+      <c r="B29" s="3">
+        <v>0.95496527777777696</v>
+      </c>
+      <c r="C29" t="s">
+        <v>57</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>29</v>
+      </c>
+      <c r="B30" s="3">
+        <v>0.95562499999999995</v>
+      </c>
+      <c r="C30" t="s">
+        <v>59</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>30</v>
+      </c>
+      <c r="B31" s="3">
+        <v>0.95819444444444402</v>
+      </c>
+      <c r="C31" t="s">
+        <v>61</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>31</v>
+      </c>
+      <c r="B32" s="3">
+        <v>0.956701388888888</v>
+      </c>
+      <c r="C32" t="s">
+        <v>63</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <v>32</v>
+      </c>
+      <c r="B33" s="3">
+        <v>0.95767361111111104</v>
+      </c>
+      <c r="C33" t="s">
+        <v>65</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <v>33</v>
+      </c>
+      <c r="B34" s="3">
+        <v>0.95663194444444399</v>
+      </c>
+      <c r="C34" t="s">
+        <v>67</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <v>34</v>
+      </c>
+      <c r="B35" s="3">
+        <v>0.95743055555555501</v>
+      </c>
+      <c r="C35" t="s">
+        <v>69</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
+        <v>35</v>
+      </c>
+      <c r="B36" s="3">
+        <v>0.95687500000000003</v>
+      </c>
+      <c r="C36" t="s">
+        <v>71</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <v>36</v>
+      </c>
+      <c r="B37" s="3">
+        <v>0.957395833333333</v>
+      </c>
+      <c r="C37" t="s">
+        <v>73</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
+        <v>37</v>
+      </c>
+      <c r="B38" s="3">
+        <v>0.95826388888888803</v>
+      </c>
+      <c r="C38" t="s">
+        <v>75</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
+        <v>38</v>
+      </c>
+      <c r="B39" s="3">
+        <v>0.95743055555555501</v>
+      </c>
+      <c r="C39" t="s">
+        <v>77</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
+        <v>39</v>
+      </c>
+      <c r="B40" s="3">
+        <v>0.95795138888888798</v>
+      </c>
+      <c r="C40" t="s">
+        <v>79</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
+        <v>40</v>
+      </c>
+      <c r="B41" s="3">
+        <v>0.95833333333333304</v>
+      </c>
+      <c r="C41" t="s">
+        <v>81</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
+        <v>41</v>
+      </c>
+      <c r="B42" s="3">
+        <v>0.96072916666666597</v>
+      </c>
+      <c r="C42" t="s">
+        <v>83</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="1">
+        <v>42</v>
+      </c>
+      <c r="B43" s="3">
+        <v>0.95732638888888799</v>
+      </c>
+      <c r="C43" t="s">
+        <v>85</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="1">
+        <v>43</v>
+      </c>
+      <c r="B44" s="3">
+        <v>0.96013888888888799</v>
+      </c>
+      <c r="C44" t="s">
+        <v>87</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="1">
+        <v>44</v>
+      </c>
+      <c r="B45" s="3">
+        <v>0.95958333333333301</v>
+      </c>
+      <c r="C45" t="s">
+        <v>89</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="1">
+        <v>45</v>
+      </c>
+      <c r="B46" s="3">
+        <v>0.95986111111111105</v>
+      </c>
+      <c r="C46" t="s">
+        <v>91</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" s="1">
+        <v>46</v>
+      </c>
+      <c r="B47" s="3">
+        <v>0.95906250000000004</v>
+      </c>
+      <c r="C47" t="s">
+        <v>93</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="1">
+        <v>47</v>
+      </c>
+      <c r="B48" s="3">
+        <v>0.96145833333333297</v>
+      </c>
+      <c r="C48" t="s">
+        <v>95</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="1">
+        <v>48</v>
+      </c>
+      <c r="B49" s="3">
+        <v>0.95982638888888805</v>
+      </c>
+      <c r="C49" t="s">
+        <v>97</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="1">
+        <v>49</v>
+      </c>
+      <c r="B50" s="3">
+        <v>0.95861111111111097</v>
+      </c>
+      <c r="C50" t="s">
+        <v>99</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" s="1">
+        <v>50</v>
+      </c>
+      <c r="B51" s="3">
+        <v>0.95944444444444399</v>
+      </c>
+      <c r="C51" t="s">
+        <v>101</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" s="1">
+        <v>51</v>
+      </c>
+      <c r="B52" s="3">
+        <v>0.95909722222222205</v>
+      </c>
+      <c r="C52" t="s">
+        <v>103</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" s="1">
+        <v>52</v>
+      </c>
+      <c r="B53" s="3">
+        <v>0.959513888888888</v>
+      </c>
+      <c r="C53" t="s">
+        <v>105</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" s="1">
+        <v>53</v>
+      </c>
+      <c r="B54" s="3">
+        <v>0.95958333333333301</v>
+      </c>
+      <c r="C54" t="s">
+        <v>107</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" s="1">
+        <v>54</v>
+      </c>
+      <c r="B55" s="3">
+        <v>0.959513888888888</v>
+      </c>
+      <c r="C55" t="s">
+        <v>109</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" s="1">
+        <v>55</v>
+      </c>
+      <c r="B56" s="3">
+        <v>0.96111111111111103</v>
+      </c>
+      <c r="C56" t="s">
+        <v>111</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" s="1">
+        <v>56</v>
+      </c>
+      <c r="B57" s="3">
+        <v>0.95944444444444399</v>
+      </c>
+      <c r="C57" t="s">
+        <v>113</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" s="1">
+        <v>57</v>
+      </c>
+      <c r="B58" s="3">
+        <v>0.96100694444444401</v>
+      </c>
+      <c r="C58" t="s">
+        <v>115</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" s="1">
+        <v>58</v>
+      </c>
+      <c r="B59" s="3">
+        <v>0.95916666666666595</v>
+      </c>
+      <c r="C59" t="s">
+        <v>117</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" s="1">
+        <v>59</v>
+      </c>
+      <c r="B60" s="3">
+        <v>0.96034722222222202</v>
+      </c>
+      <c r="C60" t="s">
+        <v>119</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" s="1">
+        <v>60</v>
+      </c>
+      <c r="B61" s="3">
+        <v>0.96034722222222202</v>
+      </c>
+      <c r="C61" t="s">
+        <v>121</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" s="1">
+        <v>61</v>
+      </c>
+      <c r="B62" s="3">
+        <v>0.96059027777777695</v>
+      </c>
+      <c r="C62" t="s">
+        <v>123</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" s="1">
+        <v>62</v>
+      </c>
+      <c r="B63" s="3">
+        <v>0.95996527777777696</v>
+      </c>
+      <c r="C63" t="s">
+        <v>125</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" s="1">
+        <v>63</v>
+      </c>
+      <c r="B64" s="3">
+        <v>0.95874999999999999</v>
+      </c>
+      <c r="C64" t="s">
+        <v>127</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" s="1">
+        <v>64</v>
+      </c>
+      <c r="B65" s="3">
+        <v>0.96072916666666597</v>
+      </c>
+      <c r="C65" t="s">
+        <v>129</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" s="1">
+        <v>65</v>
+      </c>
+      <c r="B66" s="3">
+        <v>0.96031250000000001</v>
+      </c>
+      <c r="C66" t="s">
+        <v>131</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" s="1">
+        <v>66</v>
+      </c>
+      <c r="B67" s="3">
+        <v>0.96065972222222196</v>
+      </c>
+      <c r="C67" t="s">
+        <v>133</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" s="1">
+        <v>67</v>
+      </c>
+      <c r="B68" s="3">
+        <v>0.96031250000000001</v>
+      </c>
+      <c r="C68" t="s">
+        <v>135</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" s="1">
+        <v>68</v>
+      </c>
+      <c r="B69" s="3">
+        <v>0.95989583333333295</v>
+      </c>
+      <c r="C69" t="s">
+        <v>137</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" s="1">
+        <v>69</v>
+      </c>
+      <c r="B70" s="3">
+        <v>0.95979166666666604</v>
+      </c>
+      <c r="C70" t="s">
+        <v>139</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" s="1">
+        <v>70</v>
+      </c>
+      <c r="B71" s="3">
+        <v>0.95947916666666599</v>
+      </c>
+      <c r="C71" t="s">
+        <v>141</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" s="1">
+        <v>71</v>
+      </c>
+      <c r="B72" s="3">
+        <v>0.95937499999999998</v>
+      </c>
+      <c r="C72" t="s">
+        <v>143</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" s="1">
+        <v>72</v>
+      </c>
+      <c r="B73" s="3">
+        <v>0.96125000000000005</v>
+      </c>
+      <c r="C73" t="s">
+        <v>145</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" s="1">
+        <v>73</v>
+      </c>
+      <c r="B74" s="3">
+        <v>0.95989583333333295</v>
+      </c>
+      <c r="C74" t="s">
+        <v>147</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75" s="1">
+        <v>74</v>
+      </c>
+      <c r="B75" s="3">
+        <v>0.96111111111111103</v>
+      </c>
+      <c r="C75" t="s">
+        <v>149</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76" s="1">
+        <v>75</v>
+      </c>
+      <c r="B76" s="3">
+        <v>0.96104166666666602</v>
+      </c>
+      <c r="C76" t="s">
+        <v>151</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77" s="1">
+        <v>76</v>
+      </c>
+      <c r="B77" s="3">
+        <v>0.95840277777777705</v>
+      </c>
+      <c r="C77" t="s">
+        <v>153</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78" s="1">
+        <v>77</v>
+      </c>
+      <c r="B78" s="3">
+        <v>0.95888888888888801</v>
+      </c>
+      <c r="C78" t="s">
+        <v>155</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79" s="1">
+        <v>78</v>
+      </c>
+      <c r="B79" s="3">
+        <v>0.96006944444444398</v>
+      </c>
+      <c r="C79" t="s">
+        <v>157</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80" s="1">
+        <v>79</v>
+      </c>
+      <c r="B80" s="3">
+        <v>0.960243055555555</v>
+      </c>
+      <c r="C80" t="s">
+        <v>159</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81" s="1">
+        <v>80</v>
+      </c>
+      <c r="B81" s="3">
+        <v>0.95854166666666596</v>
+      </c>
+      <c r="C81" t="s">
+        <v>161</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82" s="1">
+        <v>81</v>
+      </c>
+      <c r="B82" s="3">
+        <v>0.95986111111111105</v>
+      </c>
+      <c r="C82" t="s">
+        <v>163</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83" s="1">
+        <v>82</v>
+      </c>
+      <c r="B83" s="3">
+        <v>0.96059027777777695</v>
+      </c>
+      <c r="C83" t="s">
+        <v>165</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84" s="1">
+        <v>83</v>
+      </c>
+      <c r="B84" s="3">
+        <v>0.95986111111111105</v>
+      </c>
+      <c r="C84" t="s">
+        <v>167</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85" s="1">
+        <v>84</v>
+      </c>
+      <c r="B85" s="3">
+        <v>0.95972222222222203</v>
+      </c>
+      <c r="C85" t="s">
+        <v>169</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A86" s="1">
+        <v>85</v>
+      </c>
+      <c r="B86" s="3">
+        <v>0.96031250000000001</v>
+      </c>
+      <c r="C86" t="s">
+        <v>171</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A87" s="1">
+        <v>86</v>
+      </c>
+      <c r="B87" s="3">
+        <v>0.96038194444444402</v>
+      </c>
+      <c r="C87" t="s">
+        <v>173</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A88" s="1">
+        <v>87</v>
+      </c>
+      <c r="B88" s="3">
+        <v>0.95934027777777697</v>
+      </c>
+      <c r="C88" t="s">
+        <v>175</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A89" s="1">
+        <v>88</v>
+      </c>
+      <c r="B89" s="3">
+        <v>0.95993055555555495</v>
+      </c>
+      <c r="C89" t="s">
+        <v>177</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A90" s="1">
+        <v>89</v>
+      </c>
+      <c r="B90" s="3">
+        <v>0.95975694444444404</v>
+      </c>
+      <c r="C90" t="s">
+        <v>179</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A91" s="1">
+        <v>90</v>
+      </c>
+      <c r="B91" s="3">
+        <v>0.96142361111111097</v>
+      </c>
+      <c r="C91" t="s">
+        <v>181</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A92" s="1">
+        <v>91</v>
+      </c>
+      <c r="B92" s="3">
+        <v>0.96052083333333305</v>
+      </c>
+      <c r="C92" t="s">
+        <v>183</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A93" s="1">
+        <v>92</v>
+      </c>
+      <c r="B93" s="3">
+        <v>0.95843750000000005</v>
+      </c>
+      <c r="C93" t="s">
+        <v>185</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A94" s="1">
+        <v>93</v>
+      </c>
+      <c r="B94" s="3">
+        <v>0.96010416666666598</v>
+      </c>
+      <c r="C94" t="s">
+        <v>187</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A95" s="1">
+        <v>94</v>
+      </c>
+      <c r="B95" s="3">
+        <v>0.96</v>
+      </c>
+      <c r="C95" t="s">
+        <v>189</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A96" s="1">
+        <v>95</v>
+      </c>
+      <c r="B96" s="3">
+        <v>0.95979166666666604</v>
+      </c>
+      <c r="C96" t="s">
+        <v>191</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A97" s="1">
+        <v>96</v>
+      </c>
+      <c r="B97" s="3">
+        <v>0.96034722222222202</v>
+      </c>
+      <c r="C97" t="s">
+        <v>193</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A98" s="1">
+        <v>97</v>
+      </c>
+      <c r="B98" s="3">
+        <v>0.96118055555555504</v>
+      </c>
+      <c r="C98" t="s">
+        <v>195</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A99" s="1">
+        <v>98</v>
+      </c>
+      <c r="B99" s="3">
+        <v>0.96121527777777704</v>
+      </c>
+      <c r="C99" t="s">
+        <v>197</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A100" s="1">
+        <v>99</v>
+      </c>
+      <c r="B100" s="3">
+        <v>0.96069444444444396</v>
+      </c>
+      <c r="C100" t="s">
+        <v>199</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A101" s="1">
+        <v>100</v>
+      </c>
+      <c r="B101" s="3">
+        <v>0.95954861111111101</v>
+      </c>
+      <c r="C101" t="s">
+        <v>201</v>
+      </c>
+      <c r="D101" s="2" t="s">
+        <v>202</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>